--- a/sentiment_by_percentage_for_market_trend.xlsx
+++ b/sentiment_by_percentage_for_market_trend.xlsx
@@ -819,17 +819,17 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>trend</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>trend</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>NEU</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D20" t="n">
@@ -839,21 +839,21 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>trend</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>trend</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>NEU</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
     </row>
     <row r="22">
@@ -869,11 +869,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>POS</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
     </row>
     <row r="23">
@@ -884,12 +884,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>famous</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>NEU</t>
+          <t>NEG</t>
         </is>
       </c>
       <c r="D23" t="n">
@@ -904,16 +904,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>popular</t>
+          <t>famous</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>NEU</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
     </row>
     <row r="25">
@@ -929,11 +929,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>NEG</t>
+          <t>POS</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="26">
@@ -944,7 +944,7 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>trend</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
@@ -953,7 +953,7 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
     <row r="27">
@@ -964,7 +964,7 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>famous</t>
+          <t>trend</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
@@ -973,13 +973,13 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -999,7 +999,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>hot</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1019,7 +1019,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1039,7 +1039,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1059,7 +1059,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1079,7 +1079,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -1099,7 +1099,7 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1119,7 +1119,7 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
@@ -1139,7 +1139,7 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>latest</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1167,7 +1167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1232,81 +1232,17 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>top</t>
+          <t>popular</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>5.217391304347826</v>
+        <v>6.077348066298343</v>
       </c>
       <c r="C4" t="n">
-        <v>40.8695652173913</v>
+        <v>37.56906077348066</v>
       </c>
       <c r="D4" t="n">
         <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="inlineStr">
-        <is>
-          <t>hot</t>
-        </is>
-      </c>
-      <c r="B5" t="n">
-        <v>0</v>
-      </c>
-      <c r="C5" t="n">
-        <v>33.33333333333333</v>
-      </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="1" t="inlineStr">
-        <is>
-          <t>latest</t>
-        </is>
-      </c>
-      <c r="B6" t="n">
-        <v>0</v>
-      </c>
-      <c r="C6" t="n">
-        <v>28.57142857142857</v>
-      </c>
-      <c r="D6" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="1" t="inlineStr">
-        <is>
-          <t>popular</t>
-        </is>
-      </c>
-      <c r="B7" t="n">
-        <v>26.31578947368421</v>
-      </c>
-      <c r="C7" t="n">
-        <v>36.84210526315789</v>
-      </c>
-      <c r="D7" t="n">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="1" t="inlineStr">
-        <is>
-          <t>trend</t>
-        </is>
-      </c>
-      <c r="B8" t="n">
-        <v>0</v>
-      </c>
-      <c r="C8" t="n">
-        <v>20</v>
-      </c>
-      <c r="D8" t="n">
-        <v>7</v>
       </c>
     </row>
   </sheetData>
